--- a/Tests/templates/32readwriteChartWithImages1.xlsx
+++ b/Tests/templates/32readwriteChartWithImages1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="96" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="120" yWindow="96" windowWidth="23256" windowHeight="13176" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -189,10 +189,15 @@
               <a:t>dd</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" sz="3600" b="0" i="0" u="dashHeavy" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Eurostile"/>
               </a:rPr>
               <a:t>iti</a:t>
@@ -222,7 +227,16 @@
                 </a:solidFill>
                 <a:latin typeface="Eurostile"/>
               </a:rPr>
-              <a:t>format</a:t>
+              <a:t>form</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="3600" b="1" i="0" u="sng" strike="dblStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Eurostile"/>
+              </a:rPr>
+              <a:t>at</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="3600" b="1" i="0" u="sng" strike="sngStrike" baseline="0">
@@ -369,40 +383,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2070</c:v>
+                  <c:v>820</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2190</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1170</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1110</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>1120</c:v>
+                  <c:v>840</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3410</c:v>
+                  <c:v>2820</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2270</c:v>
+                  <c:v>1420</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2970</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2710</c:v>
+                  <c:v>3110</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2110</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2250</c:v>
+                  <c:v>3010</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1310</c:v>
+                  <c:v>1140</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2450</c:v>
+                  <c:v>1950</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -510,40 +524,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3460</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>930</c:v>
+                  <c:v>2470</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2190</c:v>
+                  <c:v>1410</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3290</c:v>
+                  <c:v>1920</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>530</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3120</c:v>
+                  <c:v>1330</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3160</c:v>
+                  <c:v>3390</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2160</c:v>
+                  <c:v>2620</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2040</c:v>
+                  <c:v>2970</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1330</c:v>
+                  <c:v>1240</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3020</c:v>
+                  <c:v>2570</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>620</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -651,40 +665,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3050</c:v>
+                  <c:v>2750</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3110</c:v>
+                  <c:v>1920</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2770</c:v>
+                  <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1690</c:v>
+                  <c:v>1250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2840</c:v>
+                  <c:v>2420</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2330</c:v>
+                  <c:v>2720</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>840</c:v>
+                  <c:v>1540</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2470</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>840</c:v>
+                  <c:v>2040</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>760</c:v>
+                  <c:v>1260</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3110</c:v>
+                  <c:v>1580</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -733,40 +747,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1060</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1710</c:v>
+                  <c:v>1880</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1210</c:v>
+                  <c:v>3450</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>660</c:v>
+                  <c:v>3170</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2100</c:v>
+                  <c:v>1760</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>690</c:v>
+                  <c:v>1260</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>610</c:v>
+                  <c:v>1830</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2930</c:v>
+                  <c:v>910</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2670</c:v>
+                  <c:v>1150</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2460</c:v>
+                  <c:v>990</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1510</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2170</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -783,11 +797,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91432064"/>
-        <c:axId val="91434368"/>
+        <c:axId val="65091456"/>
+        <c:axId val="65102208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91432064"/>
+        <c:axId val="65091456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -836,7 +850,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91434368"/>
+        <c:crossAx val="65102208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -844,7 +858,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91434368"/>
+        <c:axId val="65102208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +908,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91432064"/>
+        <c:crossAx val="65091456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1441,7 +1455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1532,51 +1546,51 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:M7" ca="1" si="0">(RANDBETWEEN(-50,250)+100)*10</f>
-        <v>2070</v>
+        <v>820</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
+        <v>2190</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
         <v>1170</v>
       </c>
-      <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1110</v>
-      </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>1120</v>
+        <v>840</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>3410</v>
+        <v>2820</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>2270</v>
+        <v>1420</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>2970</v>
+        <v>520</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>2710</v>
+        <v>3110</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>2110</v>
+        <v>2500</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>2250</v>
+        <v>3010</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>1310</v>
+        <v>1140</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>2450</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1585,51 +1599,51 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>3460</v>
+        <v>3000</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>930</v>
+        <v>2470</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>2190</v>
+        <v>1410</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>3290</v>
+        <v>1920</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>530</v>
+        <v>2380</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>3120</v>
+        <v>1330</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>3160</v>
+        <v>3390</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>2160</v>
+        <v>2620</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>2040</v>
+        <v>2970</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>1330</v>
+        <v>1240</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>3020</v>
+        <v>2570</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>620</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1638,51 +1652,51 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>3050</v>
+        <v>2750</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>3110</v>
+        <v>1920</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>2770</v>
+        <v>2030</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>1690</v>
+        <v>1250</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>2840</v>
+        <v>2420</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>2330</v>
+        <v>2720</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>840</v>
+        <v>1540</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>2470</v>
+        <v>700</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>840</v>
+        <v>2040</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>760</v>
+        <v>1260</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
-        <v>3110</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1691,51 +1705,51 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>1060</v>
+        <v>2000</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>1710</v>
+        <v>1880</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>1210</v>
+        <v>3450</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>660</v>
+        <v>3170</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>2100</v>
+        <v>1760</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>690</v>
+        <v>1260</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>610</v>
+        <v>1830</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>2930</v>
+        <v>910</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>2670</v>
+        <v>1150</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>2460</v>
+        <v>990</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>1510</v>
+        <v>1290</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>2170</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>
@@ -1756,7 +1770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
